--- a/Tools/Luban/DataTables/Datas/D_道具.xlsx
+++ b/Tools/Luban/DataTables/Datas/D_道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Game_Data\Unity\2025TTGJ\Tools\Luban\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwencheng/UnityProject/2025TTGJ/Tools/Luban/DataTables/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1021D06-011E-4CAE-B2A6-7B8FFE06C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F64568-FC6F-0643-8871-FB320EDB0AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="2920" windowWidth="28670" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="28680" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>##备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>唯一id</t>
@@ -236,7 +232,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,7 +240,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,7 +248,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +257,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF1F2329"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +266,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,14 +274,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -444,7 +440,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,188 +716,192 @@
   <dimension ref="A1:O180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="12.1640625" style="1"/>
+    <col min="1" max="2" width="12.1640625" style="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="12.1640625" style="1"/>
+    <col min="12" max="12" width="29.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>11001</v>
       </c>
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>11002</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>21001</v>
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
@@ -1050,39 +1050,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
@@ -1098,7 +1066,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
@@ -1114,7 +1082,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
@@ -1130,7 +1098,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
@@ -1146,7 +1114,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
@@ -1162,7 +1130,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1179,7 +1147,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1196,7 +1164,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1206,12 +1174,12 @@
       <c r="I19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1219,7 +1187,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1227,7 +1195,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1235,10 +1203,10 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
@@ -1254,7 +1222,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7"/>
@@ -1270,7 +1238,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7"/>
@@ -1286,7 +1254,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7"/>
@@ -1302,7 +1270,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7"/>
@@ -1318,7 +1286,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7"/>
@@ -1334,7 +1302,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7"/>
@@ -1350,7 +1318,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7"/>
@@ -1366,7 +1334,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7"/>
@@ -1382,7 +1350,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7"/>
@@ -1398,7 +1366,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7"/>
@@ -1414,7 +1382,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="7"/>
@@ -1430,7 +1398,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
@@ -1446,7 +1414,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
@@ -1462,7 +1430,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
@@ -1478,7 +1446,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1494,7 +1462,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
@@ -1510,7 +1478,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -1526,7 +1494,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1542,7 +1510,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
@@ -1558,7 +1526,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -1574,7 +1542,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1590,7 +1558,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -1606,7 +1574,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -1622,7 +1590,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1638,7 +1606,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -1654,7 +1622,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
@@ -1670,7 +1638,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
@@ -1686,7 +1654,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
@@ -1702,7 +1670,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
@@ -1718,7 +1686,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
@@ -1734,7 +1702,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="7"/>
@@ -1750,7 +1718,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
@@ -1766,7 +1734,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
@@ -1782,7 +1750,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="7"/>
@@ -1798,7 +1766,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="7"/>
@@ -1814,7 +1782,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="7"/>
@@ -1830,7 +1798,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="7"/>
@@ -1846,7 +1814,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="7"/>
@@ -1862,7 +1830,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="7"/>
@@ -1878,7 +1846,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="7"/>
@@ -1894,7 +1862,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="7"/>
@@ -1910,7 +1878,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="7"/>
@@ -1926,7 +1894,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="7"/>
@@ -1942,7 +1910,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="7"/>
@@ -1958,7 +1926,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="7"/>
@@ -1974,7 +1942,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="7"/>
@@ -1990,7 +1958,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="7"/>
@@ -2006,7 +1974,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="7"/>
@@ -2022,7 +1990,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="7"/>
@@ -2038,7 +2006,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="7"/>
@@ -2054,7 +2022,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="7"/>
@@ -2070,7 +2038,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="7"/>
@@ -2086,7 +2054,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="7"/>
@@ -2102,7 +2070,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="7"/>
@@ -2118,7 +2086,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="7"/>
@@ -2134,7 +2102,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="7"/>
@@ -2150,7 +2118,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="7"/>
@@ -2166,7 +2134,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="7"/>
@@ -2182,7 +2150,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="7"/>
@@ -2198,7 +2166,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="7"/>
@@ -2214,7 +2182,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="7"/>
@@ -2230,7 +2198,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="7"/>
@@ -2246,7 +2214,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="7"/>
@@ -2262,7 +2230,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="7"/>
@@ -2278,7 +2246,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="7"/>
@@ -2294,7 +2262,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="7"/>
@@ -2310,7 +2278,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="7"/>
@@ -2326,7 +2294,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="7"/>
@@ -2342,7 +2310,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="7"/>
@@ -2358,7 +2326,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="7"/>
@@ -2374,7 +2342,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="7"/>
@@ -2390,7 +2358,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="7"/>
@@ -2406,7 +2374,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="7"/>
@@ -2422,7 +2390,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="7"/>
@@ -2438,7 +2406,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="7"/>
@@ -2454,7 +2422,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="7"/>
@@ -2470,7 +2438,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="7"/>
@@ -2486,7 +2454,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="7"/>
@@ -2502,7 +2470,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="7"/>
@@ -2518,7 +2486,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="7"/>
@@ -2534,7 +2502,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="7"/>
@@ -2550,7 +2518,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="7"/>
@@ -2566,7 +2534,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="7"/>
@@ -2582,7 +2550,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="7"/>
@@ -2598,7 +2566,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="7"/>
@@ -2614,7 +2582,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="7"/>
@@ -2630,7 +2598,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="7"/>
@@ -2646,7 +2614,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="7"/>
@@ -2662,7 +2630,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="7"/>
@@ -2678,7 +2646,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="7"/>
@@ -2694,7 +2662,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="7"/>
@@ -2710,7 +2678,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="7"/>
@@ -2726,7 +2694,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="7"/>
@@ -2742,7 +2710,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="7"/>
@@ -2758,7 +2726,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="7"/>
@@ -2774,7 +2742,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="7"/>
@@ -2790,7 +2758,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="7"/>
@@ -2806,7 +2774,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="7"/>
@@ -2822,7 +2790,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="7"/>
@@ -2838,7 +2806,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="7"/>
@@ -2854,7 +2822,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="7"/>
@@ -2870,7 +2838,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="7"/>
@@ -2886,7 +2854,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="7"/>
@@ -2902,7 +2870,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="7"/>
@@ -2918,7 +2886,7 @@
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="7"/>
@@ -2934,7 +2902,7 @@
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="7"/>
@@ -2950,7 +2918,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="7"/>
@@ -2966,7 +2934,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="7"/>
@@ -2982,7 +2950,7 @@
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="7"/>
@@ -2998,7 +2966,7 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="7"/>
@@ -3014,7 +2982,7 @@
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="7"/>
@@ -3030,7 +2998,7 @@
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="7"/>
@@ -3046,7 +3014,7 @@
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="7"/>
@@ -3062,7 +3030,7 @@
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="7"/>
@@ -3078,7 +3046,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="7"/>
@@ -3094,7 +3062,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="7"/>
@@ -3110,7 +3078,7 @@
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="7"/>
@@ -3126,7 +3094,7 @@
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="7"/>
@@ -3142,7 +3110,7 @@
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="7"/>
@@ -3158,7 +3126,7 @@
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="7"/>
@@ -3174,7 +3142,7 @@
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="7"/>
@@ -3190,7 +3158,7 @@
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="7"/>
@@ -3206,7 +3174,7 @@
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="7"/>
@@ -3222,7 +3190,7 @@
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="7"/>
@@ -3238,7 +3206,7 @@
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="7"/>
@@ -3254,7 +3222,7 @@
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="7"/>
@@ -3270,7 +3238,7 @@
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="7"/>
@@ -3286,7 +3254,7 @@
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="7"/>
@@ -3302,7 +3270,7 @@
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="7"/>
@@ -3318,7 +3286,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="7"/>
@@ -3334,7 +3302,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="7"/>
@@ -3350,7 +3318,7 @@
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="7"/>
@@ -3366,7 +3334,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="7"/>
@@ -3382,7 +3350,7 @@
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="7"/>
@@ -3398,7 +3366,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="7"/>
@@ -3414,7 +3382,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="7"/>
@@ -3430,7 +3398,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="7"/>
@@ -3446,7 +3414,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="7"/>
@@ -3462,7 +3430,7 @@
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="7"/>
@@ -3478,7 +3446,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="7"/>
@@ -3494,7 +3462,7 @@
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="7"/>
@@ -3510,7 +3478,7 @@
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="7"/>
@@ -3526,7 +3494,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="7"/>
@@ -3542,7 +3510,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="7"/>
@@ -3558,7 +3526,7 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="7"/>
@@ -3574,7 +3542,7 @@
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="7"/>
@@ -3590,7 +3558,7 @@
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="7"/>
@@ -3606,7 +3574,7 @@
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="7"/>
@@ -3622,7 +3590,7 @@
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="7"/>
@@ -3638,7 +3606,7 @@
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="7"/>
@@ -3654,7 +3622,7 @@
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="7"/>
@@ -3670,7 +3638,7 @@
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="7"/>
@@ -3686,7 +3654,7 @@
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -3699,7 +3667,7 @@
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -3712,7 +3680,7 @@
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
